--- a/documents-export-2024-7-4/局部AOP作图数据.xlsx
+++ b/documents-export-2024-7-4/局部AOP作图数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41769\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edc-web\documents-export-2024-7-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04BA137B-56AE-4D10-A03F-53A6766F6A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73777F47-BDD5-4DC1-AE78-C8CD4910E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14088" yWindow="7500" windowWidth="18552" windowHeight="11796" xr2:uid="{EA26CA7E-5785-47C8-94D1-7132037ED9E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA26CA7E-5785-47C8-94D1-7132037ED9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="82">
   <si>
     <t>source</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
     <t>high</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -425,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -465,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -571,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -721,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758B7142-9B5E-423E-88B0-25B7A382E641}">
-  <dimension ref="A1:C691"/>
+  <dimension ref="A1:D691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -732,7 +736,7 @@
     <col min="1" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,8 +746,11 @@
       <c r="C1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,8 +760,11 @@
       <c r="C2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,8 +774,11 @@
       <c r="C3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +788,11 @@
       <c r="C4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,8 +802,11 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,8 +816,11 @@
       <c r="C6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +830,11 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,8 +844,11 @@
       <c r="C8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,8 +858,11 @@
       <c r="C9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,8 +872,11 @@
       <c r="C10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -852,8 +886,11 @@
       <c r="C11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +900,11 @@
       <c r="C12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -874,8 +914,11 @@
       <c r="C13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -885,8 +928,11 @@
       <c r="C14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,8 +942,11 @@
       <c r="C15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -907,8 +956,11 @@
       <c r="C16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -918,8 +970,11 @@
       <c r="C17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -929,8 +984,11 @@
       <c r="C18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -940,8 +998,11 @@
       <c r="C19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -951,8 +1012,11 @@
       <c r="C20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -962,8 +1026,11 @@
       <c r="C21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -973,8 +1040,11 @@
       <c r="C22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -984,8 +1054,11 @@
       <c r="C23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1068,11 @@
       <c r="C24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1082,11 @@
       <c r="C25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1096,11 @@
       <c r="C26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1110,11 @@
       <c r="C27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1124,11 @@
       <c r="C28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1138,11 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1152,11 @@
       <c r="C30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1166,11 @@
       <c r="C31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1180,11 @@
       <c r="C32" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1194,11 @@
       <c r="C33" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1208,11 @@
       <c r="C34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1116,8 +1222,11 @@
       <c r="C35" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1236,11 @@
       <c r="C36" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,8 +1250,11 @@
       <c r="C37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,8 +1264,11 @@
       <c r="C38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1278,11 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1292,11 @@
       <c r="C40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1306,11 @@
       <c r="C41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1320,11 @@
       <c r="C42" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1204,8 +1334,11 @@
       <c r="C43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1348,11 @@
       <c r="C44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1362,11 @@
       <c r="C45" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1376,11 @@
       <c r="C46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1248,8 +1390,11 @@
       <c r="C47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1404,11 @@
       <c r="C48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1270,8 +1418,11 @@
       <c r="C49" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1281,8 +1432,11 @@
       <c r="C50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1292,8 +1446,11 @@
       <c r="C51" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1303,8 +1460,11 @@
       <c r="C52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1314,8 +1474,11 @@
       <c r="C53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1325,8 +1488,11 @@
       <c r="C54" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -1336,8 +1502,11 @@
       <c r="C55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -1347,8 +1516,11 @@
       <c r="C56" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -1358,8 +1530,11 @@
       <c r="C57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -1369,8 +1544,11 @@
       <c r="C58" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -1380,8 +1558,11 @@
       <c r="C59" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1391,8 +1572,11 @@
       <c r="C60" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +1586,11 @@
       <c r="C61" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -1413,8 +1600,11 @@
       <c r="C62" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -1424,8 +1614,11 @@
       <c r="C63" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -1435,8 +1628,11 @@
       <c r="C64" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -1446,8 +1642,11 @@
       <c r="C65" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -1457,8 +1656,11 @@
       <c r="C66" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -1468,8 +1670,11 @@
       <c r="C67" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -1479,8 +1684,11 @@
       <c r="C68" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -1490,8 +1698,11 @@
       <c r="C69" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -1501,8 +1712,11 @@
       <c r="C70" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -1512,8 +1726,11 @@
       <c r="C71" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -1523,8 +1740,11 @@
       <c r="C72" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -1534,8 +1754,11 @@
       <c r="C73" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -1545,8 +1768,11 @@
       <c r="C74" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -1556,8 +1782,11 @@
       <c r="C75" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -1567,8 +1796,11 @@
       <c r="C76" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -1578,8 +1810,11 @@
       <c r="C77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -1589,8 +1824,11 @@
       <c r="C78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -1600,8 +1838,11 @@
       <c r="C79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -1611,8 +1852,11 @@
       <c r="C80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -1622,8 +1866,11 @@
       <c r="C81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -1633,8 +1880,11 @@
       <c r="C82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -1644,8 +1894,11 @@
       <c r="C83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -1655,8 +1908,11 @@
       <c r="C84" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,8 +1922,11 @@
       <c r="C85" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -1677,8 +1936,11 @@
       <c r="C86" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -1688,8 +1950,11 @@
       <c r="C87" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -1699,8 +1964,11 @@
       <c r="C88" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -1710,8 +1978,11 @@
       <c r="C89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -1721,8 +1992,11 @@
       <c r="C90" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -1732,8 +2006,11 @@
       <c r="C91" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -1743,8 +2020,11 @@
       <c r="C92" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -1754,8 +2034,11 @@
       <c r="C93" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -1765,8 +2048,11 @@
       <c r="C94" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -1776,8 +2062,11 @@
       <c r="C95" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -1787,8 +2076,11 @@
       <c r="C96" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -1798,8 +2090,11 @@
       <c r="C97" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -1809,8 +2104,11 @@
       <c r="C98" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -1820,8 +2118,11 @@
       <c r="C99" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -1831,8 +2132,11 @@
       <c r="C100" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -1842,8 +2146,11 @@
       <c r="C101" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -1853,8 +2160,11 @@
       <c r="C102" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -1864,8 +2174,11 @@
       <c r="C103" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -1875,8 +2188,11 @@
       <c r="C104" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -1886,8 +2202,11 @@
       <c r="C105" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -1897,8 +2216,11 @@
       <c r="C106" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +2230,11 @@
       <c r="C107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -1919,8 +2244,11 @@
       <c r="C108" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -1930,8 +2258,11 @@
       <c r="C109" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
@@ -1941,8 +2272,11 @@
       <c r="C110" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
@@ -1952,8 +2286,11 @@
       <c r="C111" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -1963,8 +2300,11 @@
       <c r="C112" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -1974,8 +2314,11 @@
       <c r="C113" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
@@ -1985,8 +2328,11 @@
       <c r="C114" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -1996,8 +2342,11 @@
       <c r="C115" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
@@ -2007,8 +2356,11 @@
       <c r="C116" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -2018,8 +2370,11 @@
       <c r="C117" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
@@ -2029,8 +2384,11 @@
       <c r="C118" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
@@ -2040,8 +2398,11 @@
       <c r="C119" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -2051,8 +2412,11 @@
       <c r="C120" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -2062,8 +2426,11 @@
       <c r="C121" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -2073,8 +2440,11 @@
       <c r="C122" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -2084,8 +2454,11 @@
       <c r="C123" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -2095,8 +2468,11 @@
       <c r="C124" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -2106,8 +2482,11 @@
       <c r="C125" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,8 +2496,11 @@
       <c r="C126" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -2128,8 +2510,11 @@
       <c r="C127" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2524,11 @@
       <c r="C128" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -2150,8 +2538,11 @@
       <c r="C129" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -2161,8 +2552,11 @@
       <c r="C130" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -2172,8 +2566,11 @@
       <c r="C131" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -2183,8 +2580,11 @@
       <c r="C132" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -2194,8 +2594,11 @@
       <c r="C133" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -2205,8 +2608,11 @@
       <c r="C134" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -2216,8 +2622,11 @@
       <c r="C135" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -2227,8 +2636,11 @@
       <c r="C136" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -2238,8 +2650,11 @@
       <c r="C137" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -2249,8 +2664,11 @@
       <c r="C138" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -2260,8 +2678,11 @@
       <c r="C139" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -2271,8 +2692,11 @@
       <c r="C140" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -2282,8 +2706,11 @@
       <c r="C141" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -2293,8 +2720,11 @@
       <c r="C142" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -2304,8 +2734,11 @@
       <c r="C143" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -2315,8 +2748,11 @@
       <c r="C144" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -2326,8 +2762,11 @@
       <c r="C145" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -2337,8 +2776,11 @@
       <c r="C146" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
@@ -2348,8 +2790,11 @@
       <c r="C147" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>9</v>
       </c>
@@ -2359,8 +2804,11 @@
       <c r="C148" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
@@ -2370,8 +2818,11 @@
       <c r="C149" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>9</v>
       </c>
@@ -2381,8 +2832,11 @@
       <c r="C150" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>9</v>
       </c>
@@ -2392,8 +2846,11 @@
       <c r="C151" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
@@ -2403,8 +2860,11 @@
       <c r="C152" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>9</v>
       </c>
@@ -2414,8 +2874,11 @@
       <c r="C153" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
@@ -2425,8 +2888,11 @@
       <c r="C154" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -2436,8 +2902,11 @@
       <c r="C155" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
@@ -2447,8 +2916,11 @@
       <c r="C156" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
@@ -2458,8 +2930,11 @@
       <c r="C157" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
@@ -2469,8 +2944,11 @@
       <c r="C158" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -2480,8 +2958,11 @@
       <c r="C159" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
@@ -2491,8 +2972,11 @@
       <c r="C160" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -2502,8 +2986,11 @@
       <c r="C161" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
@@ -2513,8 +3000,11 @@
       <c r="C162" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
@@ -2524,8 +3014,11 @@
       <c r="C163" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
@@ -2535,8 +3028,11 @@
       <c r="C164" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>9</v>
       </c>
@@ -2546,8 +3042,11 @@
       <c r="C165" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -2557,8 +3056,11 @@
       <c r="C166" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
@@ -2568,8 +3070,11 @@
       <c r="C167" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>9</v>
       </c>
@@ -2579,8 +3084,11 @@
       <c r="C168" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
@@ -2590,8 +3098,11 @@
       <c r="C169" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -2601,8 +3112,11 @@
       <c r="C170" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -2612,8 +3126,11 @@
       <c r="C171" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
@@ -2623,8 +3140,11 @@
       <c r="C172" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
@@ -2634,8 +3154,11 @@
       <c r="C173" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
@@ -2645,8 +3168,11 @@
       <c r="C174" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -2656,8 +3182,11 @@
       <c r="C175" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
@@ -2667,8 +3196,11 @@
       <c r="C176" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
@@ -2678,8 +3210,11 @@
       <c r="C177" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>9</v>
       </c>
@@ -2689,8 +3224,11 @@
       <c r="C178" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -2700,8 +3238,11 @@
       <c r="C179" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
@@ -2711,8 +3252,11 @@
       <c r="C180" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -2722,8 +3266,11 @@
       <c r="C181" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -2733,8 +3280,11 @@
       <c r="C182" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
@@ -2744,8 +3294,11 @@
       <c r="C183" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>9</v>
       </c>
@@ -2755,8 +3308,11 @@
       <c r="C184" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
@@ -2766,8 +3322,11 @@
       <c r="C185" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>9</v>
       </c>
@@ -2777,8 +3336,11 @@
       <c r="C186" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
@@ -2788,8 +3350,11 @@
       <c r="C187" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -2799,8 +3364,11 @@
       <c r="C188" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>9</v>
       </c>
@@ -2810,8 +3378,11 @@
       <c r="C189" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>9</v>
       </c>
@@ -2821,8 +3392,11 @@
       <c r="C190" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>9</v>
       </c>
@@ -2832,8 +3406,11 @@
       <c r="C191" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>9</v>
       </c>
@@ -2843,8 +3420,11 @@
       <c r="C192" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>9</v>
       </c>
@@ -2854,8 +3434,11 @@
       <c r="C193" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>9</v>
       </c>
@@ -2865,8 +3448,11 @@
       <c r="C194" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -2876,8 +3462,11 @@
       <c r="C195" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -2887,8 +3476,11 @@
       <c r="C196" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -2898,8 +3490,11 @@
       <c r="C197" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -2909,8 +3504,11 @@
       <c r="C198" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -2920,8 +3518,11 @@
       <c r="C199" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -2931,8 +3532,11 @@
       <c r="C200" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -2942,8 +3546,11 @@
       <c r="C201" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -2953,8 +3560,11 @@
       <c r="C202" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -2964,8 +3574,11 @@
       <c r="C203" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -2975,8 +3588,11 @@
       <c r="C204" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>11</v>
       </c>
@@ -2986,8 +3602,11 @@
       <c r="C205" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -2997,8 +3616,11 @@
       <c r="C206" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>11</v>
       </c>
@@ -3008,8 +3630,11 @@
       <c r="C207" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
@@ -3019,8 +3644,11 @@
       <c r="C208" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>11</v>
       </c>
@@ -3030,8 +3658,11 @@
       <c r="C209" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>11</v>
       </c>
@@ -3041,8 +3672,11 @@
       <c r="C210" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
@@ -3052,8 +3686,11 @@
       <c r="C211" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>11</v>
       </c>
@@ -3063,8 +3700,11 @@
       <c r="C212" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
@@ -3074,8 +3714,11 @@
       <c r="C213" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>11</v>
       </c>
@@ -3085,8 +3728,11 @@
       <c r="C214" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -3096,8 +3742,11 @@
       <c r="C215" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>11</v>
       </c>
@@ -3107,8 +3756,11 @@
       <c r="C216" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
@@ -3118,8 +3770,11 @@
       <c r="C217" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
@@ -3129,8 +3784,11 @@
       <c r="C218" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -3140,8 +3798,11 @@
       <c r="C219" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
@@ -3151,8 +3812,11 @@
       <c r="C220" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -3162,8 +3826,11 @@
       <c r="C221" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
@@ -3173,8 +3840,11 @@
       <c r="C222" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -3184,8 +3854,11 @@
       <c r="C223" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -3195,8 +3868,11 @@
       <c r="C224" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -3206,8 +3882,11 @@
       <c r="C225" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -3217,8 +3896,11 @@
       <c r="C226" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
@@ -3228,8 +3910,11 @@
       <c r="C227" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>11</v>
       </c>
@@ -3239,8 +3924,11 @@
       <c r="C228" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -3250,8 +3938,11 @@
       <c r="C229" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -3261,8 +3952,11 @@
       <c r="C230" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
@@ -3272,8 +3966,11 @@
       <c r="C231" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -3283,8 +3980,11 @@
       <c r="C232" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
@@ -3294,8 +3994,11 @@
       <c r="C233" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -3305,8 +4008,11 @@
       <c r="C234" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
@@ -3316,8 +4022,11 @@
       <c r="C235" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -3327,8 +4036,11 @@
       <c r="C236" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -3338,8 +4050,11 @@
       <c r="C237" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
@@ -3349,8 +4064,11 @@
       <c r="C238" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -3360,8 +4078,11 @@
       <c r="C239" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>11</v>
       </c>
@@ -3371,8 +4092,11 @@
       <c r="C240" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -3382,8 +4106,11 @@
       <c r="C241" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>11</v>
       </c>
@@ -3393,8 +4120,11 @@
       <c r="C242" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -3404,8 +4134,11 @@
       <c r="C243" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>11</v>
       </c>
@@ -3415,8 +4148,11 @@
       <c r="C244" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>11</v>
       </c>
@@ -3426,8 +4162,11 @@
       <c r="C245" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>11</v>
       </c>
@@ -3437,8 +4176,11 @@
       <c r="C246" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>11</v>
       </c>
@@ -3448,8 +4190,11 @@
       <c r="C247" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>11</v>
       </c>
@@ -3459,8 +4204,11 @@
       <c r="C248" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>11</v>
       </c>
@@ -3470,8 +4218,11 @@
       <c r="C249" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>11</v>
       </c>
@@ -3481,8 +4232,11 @@
       <c r="C250" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -3492,8 +4246,11 @@
       <c r="C251" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -3503,8 +4260,11 @@
       <c r="C252" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
@@ -3514,8 +4274,11 @@
       <c r="C253" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
@@ -3525,8 +4288,11 @@
       <c r="C254" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -3536,8 +4302,11 @@
       <c r="C255" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>12</v>
       </c>
@@ -3547,8 +4316,11 @@
       <c r="C256" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -3558,8 +4330,11 @@
       <c r="C257" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -3569,8 +4344,11 @@
       <c r="C258" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>12</v>
       </c>
@@ -3580,8 +4358,11 @@
       <c r="C259" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
@@ -3591,8 +4372,11 @@
       <c r="C260" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -3602,8 +4386,11 @@
       <c r="C261" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>12</v>
       </c>
@@ -3613,8 +4400,11 @@
       <c r="C262" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>12</v>
       </c>
@@ -3624,8 +4414,11 @@
       <c r="C263" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -3635,8 +4428,11 @@
       <c r="C264" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -3646,8 +4442,11 @@
       <c r="C265" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
@@ -3657,8 +4456,11 @@
       <c r="C266" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
@@ -3668,8 +4470,11 @@
       <c r="C267" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>12</v>
       </c>
@@ -3679,8 +4484,11 @@
       <c r="C268" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>12</v>
       </c>
@@ -3690,8 +4498,11 @@
       <c r="C269" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>12</v>
       </c>
@@ -3701,8 +4512,11 @@
       <c r="C270" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -3712,8 +4526,11 @@
       <c r="C271" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -3723,8 +4540,11 @@
       <c r="C272" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -3734,8 +4554,11 @@
       <c r="C273" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>12</v>
       </c>
@@ -3745,8 +4568,11 @@
       <c r="C274" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>12</v>
       </c>
@@ -3756,8 +4582,11 @@
       <c r="C275" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>12</v>
       </c>
@@ -3767,8 +4596,11 @@
       <c r="C276" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>12</v>
       </c>
@@ -3778,8 +4610,11 @@
       <c r="C277" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>12</v>
       </c>
@@ -3789,8 +4624,11 @@
       <c r="C278" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>12</v>
       </c>
@@ -3800,8 +4638,11 @@
       <c r="C279" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>12</v>
       </c>
@@ -3811,8 +4652,11 @@
       <c r="C280" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>12</v>
       </c>
@@ -3822,8 +4666,11 @@
       <c r="C281" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>12</v>
       </c>
@@ -3833,8 +4680,11 @@
       <c r="C282" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>12</v>
       </c>
@@ -3844,8 +4694,11 @@
       <c r="C283" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>12</v>
       </c>
@@ -3855,8 +4708,11 @@
       <c r="C284" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>12</v>
       </c>
@@ -3866,8 +4722,11 @@
       <c r="C285" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>12</v>
       </c>
@@ -3877,8 +4736,11 @@
       <c r="C286" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>12</v>
       </c>
@@ -3888,8 +4750,11 @@
       <c r="C287" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>12</v>
       </c>
@@ -3899,8 +4764,11 @@
       <c r="C288" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>12</v>
       </c>
@@ -3910,8 +4778,11 @@
       <c r="C289" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>12</v>
       </c>
@@ -3921,8 +4792,11 @@
       <c r="C290" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>12</v>
       </c>
@@ -3932,8 +4806,11 @@
       <c r="C291" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>12</v>
       </c>
@@ -3943,8 +4820,11 @@
       <c r="C292" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>12</v>
       </c>
@@ -3954,8 +4834,11 @@
       <c r="C293" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>12</v>
       </c>
@@ -3965,8 +4848,11 @@
       <c r="C294" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>12</v>
       </c>
@@ -3976,8 +4862,11 @@
       <c r="C295" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
@@ -3987,8 +4876,11 @@
       <c r="C296" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>12</v>
       </c>
@@ -3998,8 +4890,11 @@
       <c r="C297" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>12</v>
       </c>
@@ -4009,8 +4904,11 @@
       <c r="C298" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>13</v>
       </c>
@@ -4020,8 +4918,11 @@
       <c r="C299" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
@@ -4031,8 +4932,11 @@
       <c r="C300" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -4042,8 +4946,11 @@
       <c r="C301" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
@@ -4053,8 +4960,11 @@
       <c r="C302" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
@@ -4064,8 +4974,11 @@
       <c r="C303" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -4075,8 +4988,11 @@
       <c r="C304" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>13</v>
       </c>
@@ -4086,8 +5002,11 @@
       <c r="C305" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>13</v>
       </c>
@@ -4097,8 +5016,11 @@
       <c r="C306" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>13</v>
       </c>
@@ -4108,8 +5030,11 @@
       <c r="C307" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>13</v>
       </c>
@@ -4119,8 +5044,11 @@
       <c r="C308" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>13</v>
       </c>
@@ -4130,8 +5058,11 @@
       <c r="C309" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>13</v>
       </c>
@@ -4141,8 +5072,11 @@
       <c r="C310" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>13</v>
       </c>
@@ -4152,8 +5086,11 @@
       <c r="C311" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>13</v>
       </c>
@@ -4163,8 +5100,11 @@
       <c r="C312" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>13</v>
       </c>
@@ -4174,8 +5114,11 @@
       <c r="C313" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>13</v>
       </c>
@@ -4185,8 +5128,11 @@
       <c r="C314" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>13</v>
       </c>
@@ -4196,8 +5142,11 @@
       <c r="C315" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>13</v>
       </c>
@@ -4207,8 +5156,11 @@
       <c r="C316" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
@@ -4218,8 +5170,11 @@
       <c r="C317" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>13</v>
       </c>
@@ -4229,8 +5184,11 @@
       <c r="C318" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>13</v>
       </c>
@@ -4240,8 +5198,11 @@
       <c r="C319" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>13</v>
       </c>
@@ -4251,8 +5212,11 @@
       <c r="C320" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>13</v>
       </c>
@@ -4262,8 +5226,11 @@
       <c r="C321" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>13</v>
       </c>
@@ -4273,8 +5240,11 @@
       <c r="C322" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>13</v>
       </c>
@@ -4284,8 +5254,11 @@
       <c r="C323" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>13</v>
       </c>
@@ -4295,8 +5268,11 @@
       <c r="C324" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>13</v>
       </c>
@@ -4306,8 +5282,11 @@
       <c r="C325" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>13</v>
       </c>
@@ -4317,8 +5296,11 @@
       <c r="C326" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>13</v>
       </c>
@@ -4328,8 +5310,11 @@
       <c r="C327" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>13</v>
       </c>
@@ -4339,8 +5324,11 @@
       <c r="C328" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>13</v>
       </c>
@@ -4350,8 +5338,11 @@
       <c r="C329" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>13</v>
       </c>
@@ -4361,8 +5352,11 @@
       <c r="C330" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>13</v>
       </c>
@@ -4372,8 +5366,11 @@
       <c r="C331" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>13</v>
       </c>
@@ -4383,8 +5380,11 @@
       <c r="C332" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>13</v>
       </c>
@@ -4394,8 +5394,11 @@
       <c r="C333" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>13</v>
       </c>
@@ -4405,8 +5408,11 @@
       <c r="C334" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>13</v>
       </c>
@@ -4416,8 +5422,11 @@
       <c r="C335" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>13</v>
       </c>
@@ -4427,8 +5436,11 @@
       <c r="C336" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>13</v>
       </c>
@@ -4438,8 +5450,11 @@
       <c r="C337" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>13</v>
       </c>
@@ -4449,8 +5464,11 @@
       <c r="C338" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>13</v>
       </c>
@@ -4460,8 +5478,11 @@
       <c r="C339" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>13</v>
       </c>
@@ -4471,8 +5492,11 @@
       <c r="C340" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>13</v>
       </c>
@@ -4482,8 +5506,11 @@
       <c r="C341" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>13</v>
       </c>
@@ -4493,8 +5520,11 @@
       <c r="C342" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
@@ -4504,8 +5534,11 @@
       <c r="C343" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>13</v>
       </c>
@@ -4515,8 +5548,11 @@
       <c r="C344" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>13</v>
       </c>
@@ -4526,8 +5562,11 @@
       <c r="C345" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>13</v>
       </c>
@@ -4537,8 +5576,11 @@
       <c r="C346" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>14</v>
       </c>
@@ -4548,8 +5590,11 @@
       <c r="C347" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>14</v>
       </c>
@@ -4559,8 +5604,11 @@
       <c r="C348" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>14</v>
       </c>
@@ -4570,8 +5618,11 @@
       <c r="C349" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>14</v>
       </c>
@@ -4581,8 +5632,11 @@
       <c r="C350" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>14</v>
       </c>
@@ -4592,8 +5646,11 @@
       <c r="C351" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>14</v>
       </c>
@@ -4603,8 +5660,11 @@
       <c r="C352" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>14</v>
       </c>
@@ -4614,8 +5674,11 @@
       <c r="C353" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>14</v>
       </c>
@@ -4625,8 +5688,11 @@
       <c r="C354" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>14</v>
       </c>
@@ -4636,8 +5702,11 @@
       <c r="C355" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>14</v>
       </c>
@@ -4647,8 +5716,11 @@
       <c r="C356" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>14</v>
       </c>
@@ -4658,8 +5730,11 @@
       <c r="C357" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>14</v>
       </c>
@@ -4669,8 +5744,11 @@
       <c r="C358" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>14</v>
       </c>
@@ -4680,8 +5758,11 @@
       <c r="C359" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>14</v>
       </c>
@@ -4691,8 +5772,11 @@
       <c r="C360" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>14</v>
       </c>
@@ -4702,8 +5786,11 @@
       <c r="C361" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>14</v>
       </c>
@@ -4713,8 +5800,11 @@
       <c r="C362" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>14</v>
       </c>
@@ -4724,8 +5814,11 @@
       <c r="C363" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>14</v>
       </c>
@@ -4735,8 +5828,11 @@
       <c r="C364" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>14</v>
       </c>
@@ -4746,8 +5842,11 @@
       <c r="C365" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>14</v>
       </c>
@@ -4757,8 +5856,11 @@
       <c r="C366" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>14</v>
       </c>
@@ -4768,8 +5870,11 @@
       <c r="C367" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>14</v>
       </c>
@@ -4779,8 +5884,11 @@
       <c r="C368" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>14</v>
       </c>
@@ -4790,8 +5898,11 @@
       <c r="C369" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>14</v>
       </c>
@@ -4801,8 +5912,11 @@
       <c r="C370" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>14</v>
       </c>
@@ -4812,8 +5926,11 @@
       <c r="C371" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>14</v>
       </c>
@@ -4823,8 +5940,11 @@
       <c r="C372" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>14</v>
       </c>
@@ -4834,8 +5954,11 @@
       <c r="C373" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>14</v>
       </c>
@@ -4845,8 +5968,11 @@
       <c r="C374" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>14</v>
       </c>
@@ -4856,8 +5982,11 @@
       <c r="C375" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>14</v>
       </c>
@@ -4867,8 +5996,11 @@
       <c r="C376" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>14</v>
       </c>
@@ -4878,8 +6010,11 @@
       <c r="C377" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>14</v>
       </c>
@@ -4889,8 +6024,11 @@
       <c r="C378" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>14</v>
       </c>
@@ -4900,8 +6038,11 @@
       <c r="C379" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>14</v>
       </c>
@@ -4911,8 +6052,11 @@
       <c r="C380" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>14</v>
       </c>
@@ -4922,8 +6066,11 @@
       <c r="C381" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>14</v>
       </c>
@@ -4933,8 +6080,11 @@
       <c r="C382" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>14</v>
       </c>
@@ -4944,8 +6094,11 @@
       <c r="C383" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>14</v>
       </c>
@@ -4955,8 +6108,11 @@
       <c r="C384" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>14</v>
       </c>
@@ -4966,8 +6122,11 @@
       <c r="C385" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>14</v>
       </c>
@@ -4977,8 +6136,11 @@
       <c r="C386" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>14</v>
       </c>
@@ -4988,8 +6150,11 @@
       <c r="C387" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>14</v>
       </c>
@@ -4999,8 +6164,11 @@
       <c r="C388" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>14</v>
       </c>
@@ -5010,8 +6178,11 @@
       <c r="C389" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>14</v>
       </c>
@@ -5021,8 +6192,11 @@
       <c r="C390" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>14</v>
       </c>
@@ -5032,8 +6206,11 @@
       <c r="C391" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>14</v>
       </c>
@@ -5043,8 +6220,11 @@
       <c r="C392" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>15</v>
       </c>
@@ -5054,8 +6234,11 @@
       <c r="C393" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>15</v>
       </c>
@@ -5065,8 +6248,11 @@
       <c r="C394" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>15</v>
       </c>
@@ -5076,8 +6262,11 @@
       <c r="C395" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>15</v>
       </c>
@@ -5087,8 +6276,11 @@
       <c r="C396" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>15</v>
       </c>
@@ -5098,8 +6290,11 @@
       <c r="C397" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>15</v>
       </c>
@@ -5109,8 +6304,11 @@
       <c r="C398" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>15</v>
       </c>
@@ -5120,8 +6318,11 @@
       <c r="C399" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>15</v>
       </c>
@@ -5131,8 +6332,11 @@
       <c r="C400" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>15</v>
       </c>
@@ -5142,8 +6346,11 @@
       <c r="C401" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>15</v>
       </c>
@@ -5153,8 +6360,11 @@
       <c r="C402" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>15</v>
       </c>
@@ -5164,8 +6374,11 @@
       <c r="C403" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>15</v>
       </c>
@@ -5175,8 +6388,11 @@
       <c r="C404" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>15</v>
       </c>
@@ -5186,8 +6402,11 @@
       <c r="C405" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>15</v>
       </c>
@@ -5197,8 +6416,11 @@
       <c r="C406" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>15</v>
       </c>
@@ -5208,8 +6430,11 @@
       <c r="C407" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>15</v>
       </c>
@@ -5219,8 +6444,11 @@
       <c r="C408" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>15</v>
       </c>
@@ -5230,8 +6458,11 @@
       <c r="C409" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>15</v>
       </c>
@@ -5241,8 +6472,11 @@
       <c r="C410" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>15</v>
       </c>
@@ -5252,8 +6486,11 @@
       <c r="C411" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>15</v>
       </c>
@@ -5263,8 +6500,11 @@
       <c r="C412" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>15</v>
       </c>
@@ -5274,8 +6514,11 @@
       <c r="C413" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>15</v>
       </c>
@@ -5285,8 +6528,11 @@
       <c r="C414" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>15</v>
       </c>
@@ -5296,8 +6542,11 @@
       <c r="C415" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>15</v>
       </c>
@@ -5307,8 +6556,11 @@
       <c r="C416" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>15</v>
       </c>
@@ -5318,8 +6570,11 @@
       <c r="C417" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>15</v>
       </c>
@@ -5329,8 +6584,11 @@
       <c r="C418" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>15</v>
       </c>
@@ -5340,8 +6598,11 @@
       <c r="C419" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>15</v>
       </c>
@@ -5351,8 +6612,11 @@
       <c r="C420" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>15</v>
       </c>
@@ -5362,8 +6626,11 @@
       <c r="C421" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>15</v>
       </c>
@@ -5373,8 +6640,11 @@
       <c r="C422" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>15</v>
       </c>
@@ -5384,8 +6654,11 @@
       <c r="C423" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>15</v>
       </c>
@@ -5395,8 +6668,11 @@
       <c r="C424" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>15</v>
       </c>
@@ -5406,8 +6682,11 @@
       <c r="C425" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>15</v>
       </c>
@@ -5417,8 +6696,11 @@
       <c r="C426" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>15</v>
       </c>
@@ -5428,8 +6710,11 @@
       <c r="C427" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>15</v>
       </c>
@@ -5439,8 +6724,11 @@
       <c r="C428" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>15</v>
       </c>
@@ -5450,8 +6738,11 @@
       <c r="C429" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>15</v>
       </c>
@@ -5461,8 +6752,11 @@
       <c r="C430" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>15</v>
       </c>
@@ -5472,8 +6766,11 @@
       <c r="C431" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>15</v>
       </c>
@@ -5483,8 +6780,11 @@
       <c r="C432" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>15</v>
       </c>
@@ -5494,8 +6794,11 @@
       <c r="C433" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>15</v>
       </c>
@@ -5505,8 +6808,11 @@
       <c r="C434" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>15</v>
       </c>
@@ -5516,8 +6822,11 @@
       <c r="C435" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>15</v>
       </c>
@@ -5527,8 +6836,11 @@
       <c r="C436" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>15</v>
       </c>
@@ -5538,8 +6850,11 @@
       <c r="C437" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>15</v>
       </c>
@@ -5549,8 +6864,11 @@
       <c r="C438" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>15</v>
       </c>
@@ -5560,8 +6878,11 @@
       <c r="C439" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>16</v>
       </c>
@@ -5571,8 +6892,11 @@
       <c r="C440" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>16</v>
       </c>
@@ -5582,8 +6906,11 @@
       <c r="C441" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>17</v>
       </c>
@@ -5593,8 +6920,11 @@
       <c r="C442" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>17</v>
       </c>
@@ -5604,8 +6934,11 @@
       <c r="C443" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>17</v>
       </c>
@@ -5615,8 +6948,11 @@
       <c r="C444" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>17</v>
       </c>
@@ -5626,8 +6962,11 @@
       <c r="C445" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>17</v>
       </c>
@@ -5637,8 +6976,11 @@
       <c r="C446" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>18</v>
       </c>
@@ -5648,8 +6990,11 @@
       <c r="C447" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>18</v>
       </c>
@@ -5659,8 +7004,11 @@
       <c r="C448" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>18</v>
       </c>
@@ -5670,8 +7018,11 @@
       <c r="C449" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>18</v>
       </c>
@@ -5681,8 +7032,11 @@
       <c r="C450" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>18</v>
       </c>
@@ -5692,8 +7046,11 @@
       <c r="C451" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>18</v>
       </c>
@@ -5703,8 +7060,11 @@
       <c r="C452" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>18</v>
       </c>
@@ -5714,8 +7074,11 @@
       <c r="C453" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>18</v>
       </c>
@@ -5725,8 +7088,11 @@
       <c r="C454" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>18</v>
       </c>
@@ -5736,8 +7102,11 @@
       <c r="C455" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>18</v>
       </c>
@@ -5747,8 +7116,11 @@
       <c r="C456" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>18</v>
       </c>
@@ -5758,8 +7130,11 @@
       <c r="C457" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>18</v>
       </c>
@@ -5769,8 +7144,11 @@
       <c r="C458" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>18</v>
       </c>
@@ -5780,8 +7158,11 @@
       <c r="C459" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>18</v>
       </c>
@@ -5791,8 +7172,11 @@
       <c r="C460" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>18</v>
       </c>
@@ -5802,8 +7186,11 @@
       <c r="C461" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>18</v>
       </c>
@@ -5813,8 +7200,11 @@
       <c r="C462" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>18</v>
       </c>
@@ -5824,8 +7214,11 @@
       <c r="C463" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>18</v>
       </c>
@@ -5835,8 +7228,11 @@
       <c r="C464" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>18</v>
       </c>
@@ -5846,8 +7242,11 @@
       <c r="C465" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>18</v>
       </c>
@@ -5857,8 +7256,11 @@
       <c r="C466" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>18</v>
       </c>
@@ -5868,8 +7270,11 @@
       <c r="C467" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>18</v>
       </c>
@@ -5879,8 +7284,11 @@
       <c r="C468" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>18</v>
       </c>
@@ -5890,8 +7298,11 @@
       <c r="C469" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>18</v>
       </c>
@@ -5901,8 +7312,11 @@
       <c r="C470" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>18</v>
       </c>
@@ -5912,8 +7326,11 @@
       <c r="C471" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>18</v>
       </c>
@@ -5923,8 +7340,11 @@
       <c r="C472" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>18</v>
       </c>
@@ -5934,8 +7354,11 @@
       <c r="C473" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>18</v>
       </c>
@@ -5945,8 +7368,11 @@
       <c r="C474" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>18</v>
       </c>
@@ -5956,8 +7382,11 @@
       <c r="C475" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>18</v>
       </c>
@@ -5967,8 +7396,11 @@
       <c r="C476" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>18</v>
       </c>
@@ -5978,8 +7410,11 @@
       <c r="C477" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>18</v>
       </c>
@@ -5989,8 +7424,11 @@
       <c r="C478" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>18</v>
       </c>
@@ -6000,8 +7438,11 @@
       <c r="C479" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>18</v>
       </c>
@@ -6011,8 +7452,11 @@
       <c r="C480" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>18</v>
       </c>
@@ -6022,8 +7466,11 @@
       <c r="C481" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>18</v>
       </c>
@@ -6033,8 +7480,11 @@
       <c r="C482" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>18</v>
       </c>
@@ -6044,8 +7494,11 @@
       <c r="C483" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>18</v>
       </c>
@@ -6055,8 +7508,11 @@
       <c r="C484" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>18</v>
       </c>
@@ -6066,8 +7522,11 @@
       <c r="C485" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>18</v>
       </c>
@@ -6077,8 +7536,11 @@
       <c r="C486" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>18</v>
       </c>
@@ -6088,8 +7550,11 @@
       <c r="C487" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>18</v>
       </c>
@@ -6099,8 +7564,11 @@
       <c r="C488" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>18</v>
       </c>
@@ -6110,8 +7578,11 @@
       <c r="C489" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>18</v>
       </c>
@@ -6121,8 +7592,11 @@
       <c r="C490" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>18</v>
       </c>
@@ -6132,8 +7606,11 @@
       <c r="C491" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>18</v>
       </c>
@@ -6143,8 +7620,11 @@
       <c r="C492" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>18</v>
       </c>
@@ -6154,8 +7634,11 @@
       <c r="C493" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>19</v>
       </c>
@@ -6165,8 +7648,11 @@
       <c r="C494" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>20</v>
       </c>
@@ -6176,8 +7662,11 @@
       <c r="C495" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>20</v>
       </c>
@@ -6187,8 +7676,11 @@
       <c r="C496" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>20</v>
       </c>
@@ -6198,8 +7690,11 @@
       <c r="C497" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>21</v>
       </c>
@@ -6209,8 +7704,11 @@
       <c r="C498" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>21</v>
       </c>
@@ -6220,8 +7718,11 @@
       <c r="C499" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>21</v>
       </c>
@@ -6231,8 +7732,11 @@
       <c r="C500" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>21</v>
       </c>
@@ -6242,8 +7746,11 @@
       <c r="C501" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D501">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>21</v>
       </c>
@@ -6253,8 +7760,11 @@
       <c r="C502" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D502">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>21</v>
       </c>
@@ -6264,8 +7774,11 @@
       <c r="C503" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D503">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>22</v>
       </c>
@@ -6275,8 +7788,11 @@
       <c r="C504" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D504">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>22</v>
       </c>
@@ -6286,8 +7802,11 @@
       <c r="C505" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D505">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>22</v>
       </c>
@@ -6297,8 +7816,11 @@
       <c r="C506" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D506">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>22</v>
       </c>
@@ -6308,8 +7830,11 @@
       <c r="C507" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D507">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>22</v>
       </c>
@@ -6319,8 +7844,11 @@
       <c r="C508" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D508">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>22</v>
       </c>
@@ -6330,8 +7858,11 @@
       <c r="C509" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D509">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>22</v>
       </c>
@@ -6341,8 +7872,11 @@
       <c r="C510" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D510">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>22</v>
       </c>
@@ -6352,8 +7886,11 @@
       <c r="C511" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D511">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>22</v>
       </c>
@@ -6363,8 +7900,11 @@
       <c r="C512" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D512">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>22</v>
       </c>
@@ -6374,8 +7914,11 @@
       <c r="C513" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D513">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>22</v>
       </c>
@@ -6385,8 +7928,11 @@
       <c r="C514" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D514">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>22</v>
       </c>
@@ -6396,8 +7942,11 @@
       <c r="C515" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D515">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>22</v>
       </c>
@@ -6407,8 +7956,11 @@
       <c r="C516" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D516">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>22</v>
       </c>
@@ -6418,8 +7970,11 @@
       <c r="C517" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D517">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>22</v>
       </c>
@@ -6429,8 +7984,11 @@
       <c r="C518" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D518">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>22</v>
       </c>
@@ -6440,8 +7998,11 @@
       <c r="C519" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D519">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>22</v>
       </c>
@@ -6451,8 +8012,11 @@
       <c r="C520" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D520">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>22</v>
       </c>
@@ -6462,8 +8026,11 @@
       <c r="C521" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>22</v>
       </c>
@@ -6473,8 +8040,11 @@
       <c r="C522" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D522">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>22</v>
       </c>
@@ -6484,8 +8054,11 @@
       <c r="C523" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D523">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>22</v>
       </c>
@@ -6495,8 +8068,11 @@
       <c r="C524" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D524">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>22</v>
       </c>
@@ -6506,8 +8082,11 @@
       <c r="C525" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D525">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>22</v>
       </c>
@@ -6517,8 +8096,11 @@
       <c r="C526" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D526">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>22</v>
       </c>
@@ -6528,8 +8110,11 @@
       <c r="C527" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D527">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>22</v>
       </c>
@@ -6539,8 +8124,11 @@
       <c r="C528" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D528">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>22</v>
       </c>
@@ -6550,8 +8138,11 @@
       <c r="C529" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D529">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>22</v>
       </c>
@@ -6561,8 +8152,11 @@
       <c r="C530" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D530">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>22</v>
       </c>
@@ -6572,8 +8166,11 @@
       <c r="C531" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D531">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>22</v>
       </c>
@@ -6583,8 +8180,11 @@
       <c r="C532" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D532">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>22</v>
       </c>
@@ -6594,8 +8194,11 @@
       <c r="C533" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D533">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>22</v>
       </c>
@@ -6605,8 +8208,11 @@
       <c r="C534" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>22</v>
       </c>
@@ -6616,8 +8222,11 @@
       <c r="C535" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D535">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>22</v>
       </c>
@@ -6627,8 +8236,11 @@
       <c r="C536" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>22</v>
       </c>
@@ -6638,8 +8250,11 @@
       <c r="C537" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D537">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>22</v>
       </c>
@@ -6649,8 +8264,11 @@
       <c r="C538" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D538">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>22</v>
       </c>
@@ -6660,8 +8278,11 @@
       <c r="C539" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D539">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>22</v>
       </c>
@@ -6671,8 +8292,11 @@
       <c r="C540" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D540">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>22</v>
       </c>
@@ -6682,8 +8306,11 @@
       <c r="C541" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D541">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>22</v>
       </c>
@@ -6693,8 +8320,11 @@
       <c r="C542" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D542">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>22</v>
       </c>
@@ -6704,8 +8334,11 @@
       <c r="C543" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D543">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>22</v>
       </c>
@@ -6715,8 +8348,11 @@
       <c r="C544" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D544">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>22</v>
       </c>
@@ -6726,8 +8362,11 @@
       <c r="C545" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D545">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>22</v>
       </c>
@@ -6737,8 +8376,11 @@
       <c r="C546" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>22</v>
       </c>
@@ -6748,8 +8390,11 @@
       <c r="C547" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D547">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>22</v>
       </c>
@@ -6759,8 +8404,11 @@
       <c r="C548" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D548">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>22</v>
       </c>
@@ -6770,8 +8418,11 @@
       <c r="C549" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D549">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>22</v>
       </c>
@@ -6781,8 +8432,11 @@
       <c r="C550" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D550">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>22</v>
       </c>
@@ -6792,8 +8446,11 @@
       <c r="C551" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D551">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>23</v>
       </c>
@@ -6803,8 +8460,11 @@
       <c r="C552" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D552">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>23</v>
       </c>
@@ -6814,8 +8474,11 @@
       <c r="C553" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D553">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>23</v>
       </c>
@@ -6825,8 +8488,11 @@
       <c r="C554" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D554">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>24</v>
       </c>
@@ -6836,8 +8502,11 @@
       <c r="C555" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D555">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>24</v>
       </c>
@@ -6847,8 +8516,11 @@
       <c r="C556" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D556">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>24</v>
       </c>
@@ -6858,8 +8530,11 @@
       <c r="C557" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D557">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>24</v>
       </c>
@@ -6869,8 +8544,11 @@
       <c r="C558" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D558">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>24</v>
       </c>
@@ -6880,8 +8558,11 @@
       <c r="C559" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D559">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>24</v>
       </c>
@@ -6891,8 +8572,11 @@
       <c r="C560" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D560">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>24</v>
       </c>
@@ -6902,8 +8586,11 @@
       <c r="C561" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D561">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>24</v>
       </c>
@@ -6913,8 +8600,11 @@
       <c r="C562" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D562">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>24</v>
       </c>
@@ -6924,8 +8614,11 @@
       <c r="C563" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D563">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>24</v>
       </c>
@@ -6935,8 +8628,11 @@
       <c r="C564" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D564">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>24</v>
       </c>
@@ -6946,8 +8642,11 @@
       <c r="C565" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D565">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>24</v>
       </c>
@@ -6957,8 +8656,11 @@
       <c r="C566" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D566">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>24</v>
       </c>
@@ -6968,8 +8670,11 @@
       <c r="C567" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D567">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>24</v>
       </c>
@@ -6979,8 +8684,11 @@
       <c r="C568" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D568">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>24</v>
       </c>
@@ -6990,8 +8698,11 @@
       <c r="C569" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D569">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>24</v>
       </c>
@@ -7001,8 +8712,11 @@
       <c r="C570" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D570">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>24</v>
       </c>
@@ -7012,8 +8726,11 @@
       <c r="C571" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D571">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>24</v>
       </c>
@@ -7023,8 +8740,11 @@
       <c r="C572" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D572">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>24</v>
       </c>
@@ -7034,8 +8754,11 @@
       <c r="C573" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D573">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>24</v>
       </c>
@@ -7045,8 +8768,11 @@
       <c r="C574" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D574">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>24</v>
       </c>
@@ -7056,8 +8782,11 @@
       <c r="C575" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D575">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>24</v>
       </c>
@@ -7067,8 +8796,11 @@
       <c r="C576" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D576">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>24</v>
       </c>
@@ -7078,8 +8810,11 @@
       <c r="C577" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D577">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>24</v>
       </c>
@@ -7089,8 +8824,11 @@
       <c r="C578" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D578">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>24</v>
       </c>
@@ -7100,8 +8838,11 @@
       <c r="C579" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D579">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>24</v>
       </c>
@@ -7111,8 +8852,11 @@
       <c r="C580" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D580">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>24</v>
       </c>
@@ -7122,8 +8866,11 @@
       <c r="C581" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D581">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>24</v>
       </c>
@@ -7133,8 +8880,11 @@
       <c r="C582" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D582">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>24</v>
       </c>
@@ -7144,8 +8894,11 @@
       <c r="C583" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D583">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>24</v>
       </c>
@@ -7155,8 +8908,11 @@
       <c r="C584" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D584">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>24</v>
       </c>
@@ -7166,8 +8922,11 @@
       <c r="C585" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D585">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>24</v>
       </c>
@@ -7177,8 +8936,11 @@
       <c r="C586" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D586">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>24</v>
       </c>
@@ -7188,8 +8950,11 @@
       <c r="C587" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D587">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>24</v>
       </c>
@@ -7199,8 +8964,11 @@
       <c r="C588" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D588">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>24</v>
       </c>
@@ -7210,8 +8978,11 @@
       <c r="C589" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D589">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>24</v>
       </c>
@@ -7221,8 +8992,11 @@
       <c r="C590" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D590">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>24</v>
       </c>
@@ -7232,8 +9006,11 @@
       <c r="C591" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D591">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>24</v>
       </c>
@@ -7243,8 +9020,11 @@
       <c r="C592" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D592">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>24</v>
       </c>
@@ -7254,8 +9034,11 @@
       <c r="C593" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D593">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>24</v>
       </c>
@@ -7265,8 +9048,11 @@
       <c r="C594" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D594">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>24</v>
       </c>
@@ -7276,8 +9062,11 @@
       <c r="C595" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D595">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>24</v>
       </c>
@@ -7287,8 +9076,11 @@
       <c r="C596" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D596">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>24</v>
       </c>
@@ -7298,8 +9090,11 @@
       <c r="C597" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D597">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>24</v>
       </c>
@@ -7309,8 +9104,11 @@
       <c r="C598" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D598">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>24</v>
       </c>
@@ -7320,8 +9118,11 @@
       <c r="C599" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D599">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>24</v>
       </c>
@@ -7331,8 +9132,11 @@
       <c r="C600" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D600">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>25</v>
       </c>
@@ -7342,8 +9146,11 @@
       <c r="C601" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D601">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>25</v>
       </c>
@@ -7353,8 +9160,11 @@
       <c r="C602" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D602">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>25</v>
       </c>
@@ -7364,8 +9174,11 @@
       <c r="C603" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D603">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>25</v>
       </c>
@@ -7375,8 +9188,11 @@
       <c r="C604" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D604">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>26</v>
       </c>
@@ -7386,8 +9202,11 @@
       <c r="C605" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D605">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>26</v>
       </c>
@@ -7397,8 +9216,11 @@
       <c r="C606" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D606">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>26</v>
       </c>
@@ -7408,8 +9230,11 @@
       <c r="C607" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D607">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>26</v>
       </c>
@@ -7419,8 +9244,11 @@
       <c r="C608" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D608">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>26</v>
       </c>
@@ -7430,8 +9258,11 @@
       <c r="C609" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D609">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>26</v>
       </c>
@@ -7441,8 +9272,11 @@
       <c r="C610" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D610">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>26</v>
       </c>
@@ -7452,8 +9286,11 @@
       <c r="C611" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D611">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>26</v>
       </c>
@@ -7463,8 +9300,11 @@
       <c r="C612" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D612">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>26</v>
       </c>
@@ -7474,8 +9314,11 @@
       <c r="C613" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D613">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>26</v>
       </c>
@@ -7485,8 +9328,11 @@
       <c r="C614" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D614">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>26</v>
       </c>
@@ -7496,8 +9342,11 @@
       <c r="C615" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D615">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>26</v>
       </c>
@@ -7507,8 +9356,11 @@
       <c r="C616" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D616">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>26</v>
       </c>
@@ -7518,8 +9370,11 @@
       <c r="C617" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D617">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>26</v>
       </c>
@@ -7529,8 +9384,11 @@
       <c r="C618" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D618">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>26</v>
       </c>
@@ -7540,8 +9398,11 @@
       <c r="C619" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D619">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>26</v>
       </c>
@@ -7551,8 +9412,11 @@
       <c r="C620" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D620">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>26</v>
       </c>
@@ -7562,8 +9426,11 @@
       <c r="C621" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D621">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>26</v>
       </c>
@@ -7573,8 +9440,11 @@
       <c r="C622" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D622">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>26</v>
       </c>
@@ -7584,8 +9454,11 @@
       <c r="C623" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D623">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>26</v>
       </c>
@@ -7595,8 +9468,11 @@
       <c r="C624" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D624">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>26</v>
       </c>
@@ -7606,8 +9482,11 @@
       <c r="C625" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D625">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>26</v>
       </c>
@@ -7617,8 +9496,11 @@
       <c r="C626" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D626">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>26</v>
       </c>
@@ -7628,8 +9510,11 @@
       <c r="C627" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D627">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>26</v>
       </c>
@@ -7639,8 +9524,11 @@
       <c r="C628" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D628">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>26</v>
       </c>
@@ -7650,8 +9538,11 @@
       <c r="C629" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D629">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>26</v>
       </c>
@@ -7661,8 +9552,11 @@
       <c r="C630" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D630">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>26</v>
       </c>
@@ -7672,8 +9566,11 @@
       <c r="C631" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D631">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>26</v>
       </c>
@@ -7683,8 +9580,11 @@
       <c r="C632" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D632">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>26</v>
       </c>
@@ -7694,8 +9594,11 @@
       <c r="C633" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D633">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>26</v>
       </c>
@@ -7705,8 +9608,11 @@
       <c r="C634" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D634">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>26</v>
       </c>
@@ -7716,8 +9622,11 @@
       <c r="C635" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D635">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>26</v>
       </c>
@@ -7727,8 +9636,11 @@
       <c r="C636" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D636">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>26</v>
       </c>
@@ -7738,8 +9650,11 @@
       <c r="C637" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D637">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>26</v>
       </c>
@@ -7749,8 +9664,11 @@
       <c r="C638" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D638">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>26</v>
       </c>
@@ -7760,8 +9678,11 @@
       <c r="C639" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D639">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>26</v>
       </c>
@@ -7771,8 +9692,11 @@
       <c r="C640" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D640">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>26</v>
       </c>
@@ -7782,8 +9706,11 @@
       <c r="C641" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D641">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>26</v>
       </c>
@@ -7793,8 +9720,11 @@
       <c r="C642" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D642">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>26</v>
       </c>
@@ -7804,8 +9734,11 @@
       <c r="C643" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D643">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>26</v>
       </c>
@@ -7815,8 +9748,11 @@
       <c r="C644" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D644">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>26</v>
       </c>
@@ -7826,8 +9762,11 @@
       <c r="C645" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D645">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>26</v>
       </c>
@@ -7837,8 +9776,11 @@
       <c r="C646" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D646">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>26</v>
       </c>
@@ -7848,8 +9790,11 @@
       <c r="C647" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D647">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>26</v>
       </c>
@@ -7859,8 +9804,11 @@
       <c r="C648" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D648">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>26</v>
       </c>
@@ -7870,8 +9818,11 @@
       <c r="C649" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D649">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>26</v>
       </c>
@@ -7881,8 +9832,11 @@
       <c r="C650" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D650">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>26</v>
       </c>
@@ -7892,8 +9846,11 @@
       <c r="C651" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D651">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>27</v>
       </c>
@@ -7903,8 +9860,11 @@
       <c r="C652" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D652">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>27</v>
       </c>
@@ -7914,8 +9874,11 @@
       <c r="C653" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D653">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>27</v>
       </c>
@@ -7925,8 +9888,11 @@
       <c r="C654" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D654">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>27</v>
       </c>
@@ -7936,8 +9902,11 @@
       <c r="C655" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D655">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>27</v>
       </c>
@@ -7947,8 +9916,11 @@
       <c r="C656" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D656">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>28</v>
       </c>
@@ -7958,8 +9930,11 @@
       <c r="C657" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D657">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>28</v>
       </c>
@@ -7969,8 +9944,11 @@
       <c r="C658" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D658">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
         <v>76</v>
       </c>
@@ -7980,8 +9958,11 @@
       <c r="C659" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D659">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
         <v>76</v>
       </c>
@@ -7991,8 +9972,11 @@
       <c r="C660" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D660">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
         <v>76</v>
       </c>
@@ -8002,8 +9986,11 @@
       <c r="C661" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D661">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
         <v>76</v>
       </c>
@@ -8013,8 +10000,11 @@
       <c r="C662" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D662">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
         <v>76</v>
       </c>
@@ -8024,8 +10014,11 @@
       <c r="C663" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D663">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>76</v>
       </c>
@@ -8035,8 +10028,11 @@
       <c r="C664" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D664">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
         <v>76</v>
       </c>
@@ -8046,8 +10042,11 @@
       <c r="C665" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D665">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>76</v>
       </c>
@@ -8057,8 +10056,11 @@
       <c r="C666" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D666">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
         <v>76</v>
       </c>
@@ -8068,8 +10070,11 @@
       <c r="C667" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D667">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>76</v>
       </c>
@@ -8079,8 +10084,11 @@
       <c r="C668" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D668">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
         <v>76</v>
       </c>
@@ -8090,8 +10098,11 @@
       <c r="C669" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D669">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>76</v>
       </c>
@@ -8101,8 +10112,11 @@
       <c r="C670" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D670">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
         <v>76</v>
       </c>
@@ -8112,8 +10126,11 @@
       <c r="C671" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D671">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>76</v>
       </c>
@@ -8123,8 +10140,11 @@
       <c r="C672" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D672">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
         <v>76</v>
       </c>
@@ -8134,8 +10154,11 @@
       <c r="C673" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D673">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
         <v>76</v>
       </c>
@@ -8145,8 +10168,11 @@
       <c r="C674" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D674">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
         <v>76</v>
       </c>
@@ -8156,8 +10182,11 @@
       <c r="C675" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D675">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
         <v>76</v>
       </c>
@@ -8167,8 +10196,11 @@
       <c r="C676" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D676">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
         <v>76</v>
       </c>
@@ -8178,8 +10210,11 @@
       <c r="C677" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D677">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
         <v>76</v>
       </c>
@@ -8189,8 +10224,11 @@
       <c r="C678" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D678">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>76</v>
       </c>
@@ -8200,8 +10238,11 @@
       <c r="C679" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D679">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>76</v>
       </c>
@@ -8211,8 +10252,11 @@
       <c r="C680" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D680">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>76</v>
       </c>
@@ -8222,8 +10266,11 @@
       <c r="C681" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D681">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
         <v>76</v>
       </c>
@@ -8233,8 +10280,11 @@
       <c r="C682" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D682">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
         <v>76</v>
       </c>
@@ -8244,8 +10294,11 @@
       <c r="C683" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D683">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
         <v>76</v>
       </c>
@@ -8255,8 +10308,11 @@
       <c r="C684" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D684">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>76</v>
       </c>
@@ -8266,8 +10322,11 @@
       <c r="C685" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D685">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>76</v>
       </c>
@@ -8277,8 +10336,11 @@
       <c r="C686" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D686">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>76</v>
       </c>
@@ -8288,8 +10350,11 @@
       <c r="C687" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D687">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>76</v>
       </c>
@@ -8299,8 +10364,11 @@
       <c r="C688" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D688">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
         <v>76</v>
       </c>
@@ -8310,8 +10378,11 @@
       <c r="C689" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D689">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
         <v>76</v>
       </c>
@@ -8321,8 +10392,11 @@
       <c r="C690" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D690">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
         <v>76</v>
       </c>
@@ -8331,6 +10405,9 @@
       </c>
       <c r="C691" t="s">
         <v>80</v>
+      </c>
+      <c r="D691">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
